--- a/账本.xlsx
+++ b/账本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git文件\qinvi-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E80D8B-BBF5-41E9-A1D5-7796BE6EBDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873956AD-8CB1-40E4-B435-F063F67181D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>拉沙4车2000元，交警罚款100元。</t>
+  </si>
+  <si>
+    <t>拉土3车750元，买脚垫70元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -122,10 +126,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,31 +413,31 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="94.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="94.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>43949</v>
       </c>
       <c r="C2">
@@ -446,8 +450,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43950</v>
       </c>
       <c r="C3">
@@ -460,8 +464,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>43951</v>
       </c>
       <c r="C4">
@@ -474,8 +478,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43952</v>
       </c>
       <c r="C5">
@@ -488,8 +492,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>43953</v>
       </c>
       <c r="C6">
@@ -502,8 +506,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>43954</v>
       </c>
       <c r="C7">
@@ -516,8 +520,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>43955</v>
       </c>
       <c r="C8">
@@ -530,8 +534,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>43956</v>
       </c>
       <c r="C9">
@@ -544,8 +548,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43957</v>
       </c>
       <c r="C10">
@@ -558,29 +562,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>43958</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="C11">
+        <v>750</v>
+      </c>
+      <c r="D11">
+        <v>-70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>43959</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>43960</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>SUM(C2:C37)</f>
-        <v>12100</v>
+        <v>12850</v>
       </c>
       <c r="D38">
         <f>SUM(D2:D37)</f>
-        <v>-10970</v>
+        <v>-11040</v>
+      </c>
+      <c r="F38">
+        <f>SUM(C38:E38)</f>
+        <v>1810</v>
       </c>
     </row>
   </sheetData>
